--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,6 +433,18 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-06-27 15:48:11</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ログ記録</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,6 +445,18 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-06-27 15:57:30</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ログ記録</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,6 +457,18 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-06-28 22:57:18</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>作業ログを記録しました</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-06-30 15:50:53</t>
+          <t>2025-07-01 11:37:58</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -451,7 +451,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6/30市役所に書類を取りに行ってから受診。復帰診断書を書いてもらった。</t>
+          <t>今日は午前中に参戦公園でランニングをした。筋トレがいい感じになってきた。</t>
         </is>
       </c>
     </row>

--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,23 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-01 13:43:09</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>日記</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>雷が鳴ってきた</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/logbook.xlsx
+++ b/logbook.xlsx
@@ -2,27 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8130" yWindow="225" windowWidth="7125" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Log" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+      <family val="3"/>
+      <sz val="6"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,20 +419,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>日時</t>
-        </is>
-      </c>
       <c r="B1" t="inlineStr">
         <is>
           <t>カテゴリ</t>
@@ -472,7 +473,178 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-01 13:58:24</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>日記</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>パソコン練習中</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-01 16:19:13</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>報告</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>sikenntyuu</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-01 16:19:31</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>会議</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>あしは９：３０～</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-01 16:19:57</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>確認</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>お風呂何時から？</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-01 16:40:01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>業務</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>スーパー</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:32:46</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>学習</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>試験</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:33:21</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>学習</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>試験のマルツ家</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07-02 08:12:51</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>業務</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>今日は復帰に関する面談</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-07-02 08:13:16</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>休憩</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>面談まで車でいkく</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-07-02 08:13:44</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>学習</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>面談前に一本</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>